--- a/Program launch results.xlsx
+++ b/Program launch results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\sorting_algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B219045-F03A-4506-B1C9-4726F31F9F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011D02C-3926-4EDE-9711-25331692B430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F93E9351-92C4-45BE-B84E-EDCFF3B27B34}"/>
   </bookViews>
@@ -487,6 +487,36 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -638,6 +668,36 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -789,6 +849,48 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.5037593984962405E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -940,6 +1042,36 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1091,6 +1223,58 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.7543859649122806E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1242,6 +1426,36 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1399,6 +1613,16 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1556,6 +1780,48 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3854093212082513E-17"/>
+                  <c:y val="-1.75438596491229E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1713,6 +1979,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B065-4C09-AEC0-B65388FD7872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3081,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2009DF-69C8-4C2D-966F-0726D8C76FF1}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
